--- a/documentation/Autocorrelation_calculator.xlsx
+++ b/documentation/Autocorrelation_calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapof\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapof\Documents\Programming\CUDA\AutocorrelationCUDA\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18A9D19-682C-43CB-B3F9-ABCDDA94BA18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB3012-5116-4218-8D29-21FFF3363B10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{813CCEE3-C2AA-4D63-AF2A-847E1A82F5AE}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="chartAutocorr">OFFSET(Sheet1!$B$1,,,COUNT(Sheet1!XFB1048575:XFB3998))</definedName>
-    <definedName name="chartData">OFFSET(Sheet1!$A$1,,,COUNT(Sheet1!XFB1048575:XFB3998))</definedName>
+    <definedName name="chartAutocorr">Sheet1!XFC1048572:XFC95</definedName>
+    <definedName name="chartData">Sheet1!XFB1048572:XFB95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -169,6 +169,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -178,329 +208,311 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Data</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!chartData</c:f>
+              <c:f>Sheet1!$A$1:$A$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="155"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="42">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="65">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="75">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="84">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>7</c:v>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="78">
-                  <c:v>10</c:v>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="93">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="94">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="95">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>7</c:v>
@@ -509,175 +521,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="102">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,513 +532,330 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-53BB-4FBD-915B-6B3EC2596171}"/>
+              <c16:uniqueId val="{00000000-9435-4619-BB8A-9B2501585620}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Autocorrelation</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!chartAutocorr</c:f>
+              <c:f>Sheet1!$B$1:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="155"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>31</c:v>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>31</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>23</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>34</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>30</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="52">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="53">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>22</c:v>
+                <c:pt idx="55">
+                  <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>22</c:v>
+                <c:pt idx="56">
+                  <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="57">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>34</c:v>
-                </c:pt>
                 <c:pt idx="58">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>27</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>34</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>34</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>31</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>22</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>22</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="77">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>34</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="87">
-                  <c:v>35</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>34</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="96">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="92">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>42</c:v>
-                </c:pt>
                 <c:pt idx="97">
-                  <c:v>38</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>30</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>34</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,7 +863,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-53BB-4FBD-915B-6B3EC2596171}"/>
+              <c16:uniqueId val="{00000001-9435-4619-BB8A-9B2501585620}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1212,36 +876,75 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1787334832"/>
-        <c:axId val="1787335248"/>
+        <c:axId val="273806623"/>
+        <c:axId val="273805375"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1787334832"/>
+        <c:axId val="273806623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273805375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="273805375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1265,8 +968,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1277,76 +981,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1787335248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1787335248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1787334832"/>
+        <c:crossAx val="273806623"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1358,6 +993,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1371,13 +1037,15 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="tx1">
-        <a:lumMod val="95000"/>
-        <a:lumOff val="5000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1441,46 +1109,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1489,14 +1144,38 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1506,18 +1185,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1525,131 +1209,84 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1665,18 +1302,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1686,22 +1326,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1710,13 +1350,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1728,13 +1369,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1746,35 +1388,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1784,29 +1421,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1816,13 +1440,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1834,13 +1459,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1852,26 +1478,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1879,8 +1506,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1890,13 +1518,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1908,11 +1537,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1921,15 +1551,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1938,8 +1567,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1953,17 +1583,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1972,8 +1600,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1983,33 +1612,39 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784ED7B1-1EEA-4397-8F82-7D6702576609}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FBD810-A722-4007-936D-FBA345DB1E79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +1965,7 @@
   <dimension ref="A1:D4000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2344,33 +1979,33 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4">
         <f ca="1">IF(A1="","",QUOTIENT(C1,(COUNT(A:A)-ROW()+1)))</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" cm="1">
         <f t="array" aca="1" ref="C1" ca="1">IF(A1="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>6705</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6">
         <f t="shared" ref="B2:B65" ca="1" si="0">IF(A2="","",QUOTIENT(C2,(COUNT(A:A)-ROW()+1)))</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">IF(A2="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>6001</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -2378,7 +2013,7 @@
       </c>
       <c r="C3" s="5" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">IF(A3="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4804</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2387,102 +2022,102 @@
       </c>
       <c r="B4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">IF(A4="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3962</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">IF(A5="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3546</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IF(A6="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3687</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">IF(A7="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4298</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">IF(A8="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4922</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">IF(A9="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>5299</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">IF(A10="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>5245</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>4</v>
+      <c r="A11" s="3">
+        <v>1</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">IF(A11="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4689</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2491,37 +2126,37 @@
       </c>
       <c r="B12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">IF(A12="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4057</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">IF(A13="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3789</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">IF(A14="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4048</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2530,107 +2165,107 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">IF(A15="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4645</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">IF(A16="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>5085</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">IF(A17="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4998</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">IF(A18="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4531</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19" s="5" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">IF(A19="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3854</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C20" s="5" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">IF(A20="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3245</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>2</v>
+      <c r="A21" s="3">
+        <v>1</v>
       </c>
       <c r="B21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">IF(A21="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3153</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">IF(A22="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3552</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -2638,168 +2273,168 @@
       </c>
       <c r="C23" s="5" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">IF(A23="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4254</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">IF(A24="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>5225</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">IF(A25="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>5743</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C26" s="5" cm="1">
         <f t="array" aca="1" ref="C26" ca="1">IF(A26="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>5121</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C27" s="5" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">IF(A27="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4091</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C28" s="5" cm="1">
         <f t="array" aca="1" ref="C28" ca="1">IF(A28="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3367</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C29" s="5" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">IF(A29="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3016</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">IF(A30="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3140</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>10</v>
+      <c r="A31" s="3">
+        <v>1</v>
       </c>
       <c r="B31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5" cm="1">
         <f t="array" aca="1" ref="C31" ca="1">IF(A31="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3654</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C32" s="5" cm="1">
         <f t="array" aca="1" ref="C32" ca="1">IF(A32="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4175</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C33" s="5" cm="1">
         <f t="array" aca="1" ref="C33" ca="1">IF(A33="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4487</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C34" s="5" cm="1">
         <f t="array" aca="1" ref="C34" ca="1">IF(A34="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4433</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C35" s="5" cm="1">
         <f t="array" aca="1" ref="C35" ca="1">IF(A35="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3954</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B36" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -2807,25 +2442,25 @@
       </c>
       <c r="C36" s="5" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">IF(A36="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3413</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" s="5" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">IF(A37="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3183</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B38" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -2833,72 +2468,72 @@
       </c>
       <c r="C38" s="5" cm="1">
         <f t="array" aca="1" ref="C38" ca="1">IF(A38="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3404</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" s="5" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">IF(A39="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3910</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="5" cm="1">
         <f t="array" aca="1" ref="C40" ca="1">IF(A40="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4273</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>10</v>
+      <c r="A41" s="3">
+        <v>1</v>
       </c>
       <c r="B41" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C41" s="5" cm="1">
         <f t="array" aca="1" ref="C41" ca="1">IF(A41="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4186</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B42" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C42" s="5" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">IF(A42="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3784</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B43" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C43" s="5" cm="1">
         <f t="array" aca="1" ref="C43" ca="1">IF(A43="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3210</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2907,250 +2542,250 @@
       </c>
       <c r="B44" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C44" s="5" cm="1">
         <f t="array" aca="1" ref="C44" ca="1">IF(A44="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2698</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B45" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C45" s="5" cm="1">
         <f t="array" aca="1" ref="C45" ca="1">IF(A45="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2623</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B46" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C46" s="5" cm="1">
         <f t="array" aca="1" ref="C46" ca="1">IF(A46="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2957</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B47" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C47" s="5" cm="1">
         <f t="array" aca="1" ref="C47" ca="1">IF(A47="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3541</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B48" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C48" s="5" cm="1">
         <f t="array" aca="1" ref="C48" ca="1">IF(A48="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4345</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B49" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C49" s="5" cm="1">
         <f t="array" aca="1" ref="C49" ca="1">IF(A49="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4767</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B50" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C50" s="5" cm="1">
         <f t="array" aca="1" ref="C50" ca="1">IF(A50="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>4241</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>10</v>
+      <c r="A51" s="3">
+        <v>1</v>
       </c>
       <c r="B51" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C51" s="5" cm="1">
         <f t="array" aca="1" ref="C51" ca="1">IF(A51="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3378</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C52" s="5" cm="1">
         <f t="array" aca="1" ref="C52" ca="1">IF(A52="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2772</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B53" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C53" s="5" cm="1">
         <f t="array" aca="1" ref="C53" ca="1">IF(A53="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2486</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B54" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C54" s="5" cm="1">
         <f t="array" aca="1" ref="C54" ca="1">IF(A54="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2593</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B55" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="5" cm="1">
         <f t="array" aca="1" ref="C55" ca="1">IF(A55="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3010</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B56" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C56" s="5" cm="1">
         <f t="array" aca="1" ref="C56" ca="1">IF(A56="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3428</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C57" s="5" cm="1">
         <f t="array" aca="1" ref="C57" ca="1">IF(A57="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3675</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C58" s="5" cm="1">
         <f t="array" aca="1" ref="C58" ca="1">IF(A58="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3621</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B59" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="5" cm="1">
         <f t="array" aca="1" ref="C59" ca="1">IF(A59="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3219</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B60" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C60" s="5" cm="1">
         <f t="array" aca="1" ref="C60" ca="1">IF(A60="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2769</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>0</v>
+      <c r="A61" s="3">
+        <v>1</v>
       </c>
       <c r="B61" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C61" s="5" cm="1">
         <f t="array" aca="1" ref="C61" ca="1">IF(A61="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2577</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C62" s="5" cm="1">
         <f t="array" aca="1" ref="C62" ca="1">IF(A62="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2760</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B63" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -3158,46 +2793,46 @@
       </c>
       <c r="C63" s="5" cm="1">
         <f t="array" aca="1" ref="C63" ca="1">IF(A63="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3175</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B64" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C64" s="5" cm="1">
         <f t="array" aca="1" ref="C64" ca="1">IF(A64="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3461</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B65" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C65" s="5" cm="1">
         <f t="array" aca="1" ref="C65" ca="1">IF(A65="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3374</v>
+        <v>970</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B66" s="6">
         <f t="shared" ref="B66:B129" ca="1" si="1">IF(A66="","",QUOTIENT(C66,(COUNT(A:A)-ROW()+1)))</f>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C66" s="5" cm="1">
         <f t="array" aca="1" ref="C66" ca="1">IF(A66="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3037</v>
+        <v>910</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3210,168 +2845,168 @@
       </c>
       <c r="C67" s="5" cm="1">
         <f t="array" aca="1" ref="C67" ca="1">IF(A67="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2566</v>
+        <v>885</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B68" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C68" s="5" cm="1">
         <f t="array" aca="1" ref="C68" ca="1">IF(A68="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2151</v>
+        <v>896</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B69" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C69" s="5" cm="1">
         <f t="array" aca="1" ref="C69" ca="1">IF(A69="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2093</v>
+        <v>944</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B70" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C70" s="5" cm="1">
         <f t="array" aca="1" ref="C70" ca="1">IF(A70="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2362</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="A71" s="3">
         <v>1</v>
       </c>
       <c r="B71" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C71" s="5" cm="1">
         <f t="array" aca="1" ref="C71" ca="1">IF(A71="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2828</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B72" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C72" s="5" cm="1">
         <f t="array" aca="1" ref="C72" ca="1">IF(A72="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3465</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B73" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C73" s="5" cm="1">
         <f t="array" aca="1" ref="C73" ca="1">IF(A73="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3791</v>
+        <v>886</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B74" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C74" s="5" cm="1">
         <f t="array" aca="1" ref="C74" ca="1">IF(A74="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>3361</v>
+        <v>784</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B75" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C75" s="5" cm="1">
         <f t="array" aca="1" ref="C75" ca="1">IF(A75="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B76" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C76" s="5" cm="1">
         <f t="array" aca="1" ref="C76" ca="1">IF(A76="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2177</v>
+        <v>650</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B77" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C77" s="5" cm="1">
         <f t="array" aca="1" ref="C77" ca="1">IF(A77="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1956</v>
+        <v>620</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B78" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C78" s="5" cm="1">
         <f t="array" aca="1" ref="C78" ca="1">IF(A78="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2046</v>
+        <v>616</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C79" s="5" cm="1">
         <f t="array" aca="1" ref="C79" ca="1">IF(A79="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2366</v>
+        <v>639</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B80" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -3379,129 +3014,129 @@
       </c>
       <c r="C80" s="5" cm="1">
         <f t="array" aca="1" ref="C80" ca="1">IF(A80="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2681</v>
+        <v>690</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>8</v>
+      <c r="A81" s="3">
+        <v>1</v>
       </c>
       <c r="B81" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C81" s="5" cm="1">
         <f t="array" aca="1" ref="C81" ca="1">IF(A81="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2863</v>
+        <v>770</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B82" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82" s="5" cm="1">
         <f t="array" aca="1" ref="C82" ca="1">IF(A82="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2809</v>
+        <v>670</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83" s="5" cm="1">
         <f t="array" aca="1" ref="C83" ca="1">IF(A83="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2484</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B84" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C84" s="5" cm="1">
         <f t="array" aca="1" ref="C84" ca="1">IF(A84="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2125</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B85" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C85" s="5" cm="1">
         <f t="array" aca="1" ref="C85" ca="1">IF(A85="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1971</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B86" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C86" s="5" cm="1">
         <f t="array" aca="1" ref="C86" ca="1">IF(A86="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2116</v>
+        <v>390</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B87" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C87" s="5" cm="1">
         <f t="array" aca="1" ref="C87" ca="1">IF(A87="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2440</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B88" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C88" s="5" cm="1">
         <f t="array" aca="1" ref="C88" ca="1">IF(A88="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2649</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B89" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C89" s="5" cm="1">
         <f t="array" aca="1" ref="C89" ca="1">IF(A89="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2562</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B90" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -3509,85 +3144,85 @@
       </c>
       <c r="C90" s="5" cm="1">
         <f t="array" aca="1" ref="C90" ca="1">IF(A90="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2290</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>7</v>
+      <c r="A91" s="3">
+        <v>1</v>
       </c>
       <c r="B91" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C91" s="5" cm="1">
         <f t="array" aca="1" ref="C91" ca="1">IF(A91="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1922</v>
+        <v>385</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B92" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C92" s="5" cm="1">
         <f t="array" aca="1" ref="C92" ca="1">IF(A92="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1604</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B93" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C93" s="5" cm="1">
         <f t="array" aca="1" ref="C93" ca="1">IF(A93="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1563</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B94" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C94" s="5" cm="1">
         <f t="array" aca="1" ref="C94" ca="1">IF(A94="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1767</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B95" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C95" s="5" cm="1">
         <f t="array" aca="1" ref="C95" ca="1">IF(A95="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2115</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B96" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C96" s="5" cm="1">
         <f t="array" aca="1" ref="C96" ca="1">IF(A96="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2585</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3596,11 +3231,11 @@
       </c>
       <c r="B97" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C97" s="5" cm="1">
         <f t="array" aca="1" ref="C97" ca="1">IF(A97="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2815</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3609,846 +3244,660 @@
       </c>
       <c r="B98" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C98" s="5" cm="1">
         <f t="array" aca="1" ref="C98" ca="1">IF(A98="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2481</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B99" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C99" s="5" cm="1">
         <f t="array" aca="1" ref="C99" ca="1">IF(A99="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1952</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B100" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C100" s="5" cm="1">
         <f t="array" aca="1" ref="C100" ca="1">IF(A100="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1582</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
-        <v>1</v>
-      </c>
-      <c r="B101" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="C101" s="5" cm="1">
+      <c r="B101" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C101" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C101" ca="1">IF(A101="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1426</v>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
-        <v>7</v>
-      </c>
-      <c r="B102" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C102" s="5" cm="1">
+      <c r="B102" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C102" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C102" ca="1">IF(A102="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1499</v>
+        <v/>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
-        <v>10</v>
-      </c>
-      <c r="B103" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="C103" s="5" cm="1">
+      <c r="B103" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C103" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C103" ca="1">IF(A103="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1722</v>
+        <v/>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
-        <v>9</v>
-      </c>
-      <c r="B104" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="C104" s="5" cm="1">
+      <c r="B104" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C104" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C104" ca="1">IF(A104="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1934</v>
+        <v/>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
-        <v>8</v>
-      </c>
-      <c r="B105" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C105" s="5" cm="1">
+      <c r="B105" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C105" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C105" ca="1">IF(A105="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>2051</v>
+        <v/>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
-        <v>7</v>
-      </c>
-      <c r="B106" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C106" s="5" cm="1">
+      <c r="B106" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C106" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C106" ca="1">IF(A106="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1997</v>
+        <v/>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
-        <v>4</v>
-      </c>
-      <c r="B107" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C107" s="5" cm="1">
+      <c r="B107" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C107" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C107" ca="1">IF(A107="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1749</v>
+        <v/>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
-        <v>2</v>
-      </c>
-      <c r="B108" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C108" s="5" cm="1">
+      <c r="B108" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C108" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C108" ca="1">IF(A108="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1481</v>
+        <v/>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
-        <v>0</v>
-      </c>
-      <c r="B109" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="C109" s="5" cm="1">
+      <c r="B109" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C109" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C109" ca="1">IF(A109="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1365</v>
+        <v/>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
-        <v>1</v>
-      </c>
-      <c r="B110" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="C110" s="5" cm="1">
+      <c r="B110" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C110" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C110" ca="1">IF(A110="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1472</v>
+        <v/>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
-        <v>5</v>
-      </c>
-      <c r="B111" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="C111" s="5" cm="1">
+      <c r="B111" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C111" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C111" ca="1">IF(A111="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1705</v>
+        <v/>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
-        <v>9</v>
-      </c>
-      <c r="B112" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="C112" s="5" cm="1">
+      <c r="B112" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C112" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C112" ca="1">IF(A112="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
-        <v>10</v>
-      </c>
-      <c r="B113" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C113" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C113" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C113" ca="1">IF(A113="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="5">
-        <v>9</v>
-      </c>
-      <c r="B114" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C114" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C114" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C114" ca="1">IF(A114="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
-        <v>7</v>
-      </c>
-      <c r="B115" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C115" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C115" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C115" ca="1">IF(A115="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="5">
-        <v>4</v>
-      </c>
-      <c r="B116" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="C116" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C116" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C116" ca="1">IF(A116="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
-        <v>2</v>
-      </c>
-      <c r="B117" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="C117" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C117" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C117" ca="1">IF(A117="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
-        <v>0</v>
-      </c>
-      <c r="B118" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C118" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C118" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C118" ca="1">IF(A118="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
-        <v>1</v>
-      </c>
-      <c r="B119" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C119" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C119" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C119" ca="1">IF(A119="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="5">
-        <v>5</v>
-      </c>
-      <c r="B120" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C120" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C120" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C120" ca="1">IF(A120="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
-        <v>7</v>
-      </c>
-      <c r="B121" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="C121" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C121" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C121" ca="1">IF(A121="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="5">
-        <v>8</v>
-      </c>
-      <c r="B122" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C122" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C122" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C122" ca="1">IF(A122="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
-        <v>10</v>
-      </c>
-      <c r="B123" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C123" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C123" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C123" ca="1">IF(A123="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
-        <v>4</v>
-      </c>
-      <c r="B124" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="C124" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C124" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C124" ca="1">IF(A124="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>987</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
-        <v>1</v>
-      </c>
-      <c r="B125" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="C125" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C125" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C125" ca="1">IF(A125="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>896</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
-        <v>7</v>
-      </c>
-      <c r="B126" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="C126" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C126" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C126" ca="1">IF(A126="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>952</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
-        <v>10</v>
-      </c>
-      <c r="B127" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="C127" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C127" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C127" ca="1">IF(A127="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="5">
-        <v>9</v>
-      </c>
-      <c r="B128" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="C128" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C128" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C128" ca="1">IF(A128="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="5">
-        <v>8</v>
-      </c>
-      <c r="B129" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="C129" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C129" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C129" ca="1">IF(A129="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="5">
-        <v>7</v>
-      </c>
-      <c r="B130" s="6">
-        <f t="shared" ref="B130:B193" ca="1" si="2">IF(A130="","",QUOTIENT(C130,(COUNT(A:A)-ROW()+1)))</f>
-        <v>35</v>
-      </c>
-      <c r="C130" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="str">
+        <f t="shared" ref="B130:B193" si="2">IF(A130="","",QUOTIENT(C130,(COUNT(A:A)-ROW()+1)))</f>
+        <v/>
+      </c>
+      <c r="C130" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C130" ca="1">IF(A130="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
-        <v>4</v>
-      </c>
-      <c r="B131" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="C131" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C131" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C131" ca="1">IF(A131="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
-        <v>2</v>
-      </c>
-      <c r="B132" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="C132" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C132" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C132" ca="1">IF(A132="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>837</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
-        <v>0</v>
-      </c>
-      <c r="B133" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="C133" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C133" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C133" ca="1">IF(A133="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>759</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
-        <v>1</v>
-      </c>
-      <c r="B134" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="C134" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C134" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C134" ca="1">IF(A134="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>828</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
-        <v>5</v>
-      </c>
-      <c r="B135" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="C135" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C135" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C135" ca="1">IF(A135="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>970</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
-        <v>9</v>
-      </c>
-      <c r="B136" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="C136" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C136" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C136" ca="1">IF(A136="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
-        <v>10</v>
-      </c>
-      <c r="B137" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="C137" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C137" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C137" ca="1">IF(A137="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>938</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
-        <v>9</v>
-      </c>
-      <c r="B138" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="C138" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C138" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C138" ca="1">IF(A138="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>796</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
-        <v>7</v>
-      </c>
-      <c r="B139" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="C139" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C139" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C139" ca="1">IF(A139="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>634</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
-        <v>4</v>
-      </c>
-      <c r="B140" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="C140" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C140" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C140" ca="1">IF(A140="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>510</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
-        <v>2</v>
-      </c>
-      <c r="B141" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="C141" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C141" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C141" ca="1">IF(A141="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>503</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
-        <v>0</v>
-      </c>
-      <c r="B142" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="C142" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C142" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C142" ca="1">IF(A142="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>577</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
-        <v>1</v>
-      </c>
-      <c r="B143" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="C143" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C143" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C143" ca="1">IF(A143="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>689</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="5">
-        <v>5</v>
-      </c>
-      <c r="B144" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="C144" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C144" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C144" ca="1">IF(A144="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>825</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
-        <v>7</v>
-      </c>
-      <c r="B145" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="C145" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C145" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C145" ca="1">IF(A145="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>863</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="5">
-        <v>8</v>
-      </c>
-      <c r="B146" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="C146" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C146" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C146" ca="1">IF(A146="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>721</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="5">
-        <v>10</v>
-      </c>
-      <c r="B147" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="C147" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C147" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C147" ca="1">IF(A147="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>526</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="5">
-        <v>4</v>
-      </c>
-      <c r="B148" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="C148" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C148" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C148" ca="1">IF(A148="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>392</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="5">
-        <v>1</v>
-      </c>
-      <c r="B149" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="C149" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C149" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C149" ca="1">IF(A149="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>366</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="5">
-        <v>7</v>
-      </c>
-      <c r="B150" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="C150" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C150" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C150" ca="1">IF(A150="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="5">
-        <v>10</v>
-      </c>
-      <c r="B151" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="C151" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C151" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C151" ca="1">IF(A151="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>434</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="5">
-        <v>9</v>
-      </c>
-      <c r="B152" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="C152" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C152" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C152" ca="1">IF(A152="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>440</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="5">
-        <v>8</v>
-      </c>
-      <c r="B153" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="C153" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C153" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C153" ca="1">IF(A153="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>427</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="5">
-        <v>7</v>
-      </c>
-      <c r="B154" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="C154" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C154" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C154" ca="1">IF(A154="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>373</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="5">
-        <v>4</v>
-      </c>
-      <c r="B155" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="C155" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C155" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C155" ca="1">IF(A155="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
-        <v>2</v>
-      </c>
-      <c r="B156" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="C156" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C156" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C156" ca="1">IF(A156="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
-        <v>0</v>
-      </c>
-      <c r="B157" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="C157" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C157" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C157" ca="1">IF(A157="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="5">
-        <v>1</v>
-      </c>
-      <c r="B158" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="C158" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C158" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C158" ca="1">IF(A158="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
-        <v>5</v>
-      </c>
-      <c r="B159" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="C159" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C159" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C159" ca="1">IF(A159="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="5">
-        <v>9</v>
-      </c>
-      <c r="B160" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="C160" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C160" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C160" ca="1">IF(A160="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="5">
-        <v>10</v>
-      </c>
-      <c r="B161" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="C161" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C161" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C161" ca="1">IF(A161="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="5">
-        <v>7</v>
-      </c>
-      <c r="B162" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="C162" s="5" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C162" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="C162" ca="1">IF(A162="", "", SUM(INDIRECT("A$1:A$"&amp; COUNT(A:A))*INDIRECT("A"&amp;ROW()&amp;":A"&amp; COUNT(A:A)+ROW()-1)))</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4458,7 +3907,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4468,7 +3917,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4478,7 +3927,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4488,7 +3937,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4498,7 +3947,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4508,7 +3957,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4518,7 +3967,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4528,7 +3977,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4538,7 +3987,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4548,7 +3997,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4558,7 +4007,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4568,7 +4017,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4578,7 +4027,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
